--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A9C53E-F39C-4A88-B9EF-65EB5B064E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCF1E41-8354-40DB-951B-F2FEAAEEF6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -230,70 +230,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>登録ボタンを押した際入力に不備が無ければ、
-入力データを日次テーブル（work_report_daily）へ登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フビ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録ボタンを押した際入力に不備が無ければ、
-入力データを月次テーブル（work_report_monthly）へ登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>フビ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ゲツジ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「戻る」ボタンを押した際、
 ユーザーが管理者であれば社員一覧画面へ遷移する</t>
     <rPh sb="1" eb="2">
@@ -1077,500 +1013,19 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>日次報告書テーブルに対象のデータが存在しない場合、
-「勤務報告書」画面を開いた時に正しく画面表示される。</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="32">
-      <t>キンムホウコクショ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに対象のデータが存在しない場合、
-「勤務報告書」画面を開いた時に正しく画面表示される。</t>
-    <rPh sb="0" eb="5">
-      <t>ゲツジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="32">
-      <t>キンムホウコクショ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒラ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="44" eb="48">
-      <t>ガメンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した社員番号が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した年が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した月が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した日が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した出社時間が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>シュッシャ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した退社時間が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイシャ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した休憩時間が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>キュウケイジカン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した稼働時間が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カドウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した時間外労働時間が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="19">
-      <t>ジカンガイロウドウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日次報告書テーブルに登録した備考が正しく表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ニチジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した社員番号が正しく表示される</t>
-    <rPh sb="0" eb="2">
-      <t>ゲツジ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した年が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した定時間が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
+    <t>「登録」ボタンを押した際、「定時間」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サイ</t>
     </rPh>
     <rPh sb="14" eb="17">
       <t>テイジカン</t>
     </rPh>
-    <rPh sb="18" eb="19">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した稼働時間合計が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>カドウジカン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した時間外合計が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>ジカンガイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録したプロジェクト名が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した特記事項が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トッキ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルに登録した月が正しく表示される</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホウコク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「登録」ボタンを押した際、「定時間」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイジカン</t>
-    </rPh>
     <rPh sb="19" eb="21">
       <t>キニュウ</t>
     </rPh>
@@ -1582,79 +1037,6 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルの承認済みフラグの値が１（ユーザー編集不可）の時、
-管理者ユーザーの画面に「取消」ボタンが表示される</t>
-    <rPh sb="0" eb="5">
-      <t>ゲツジホウコクショ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ショウニンズ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>トリケシ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>管理者が「取消」ボタンを押すと、押されたユーザーの月次報告書（work_report_monthly）テーブルの
-承認済みフラグ（auth_flg）の値を０（ユーザー編集可）にする</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トリケシ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ゲツジ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1813,49 +1195,961 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>管理者が「確定」ボタンを押すと、押されたユーザーの月次報告書（work_report_monthly）テーブルの
-承認済みフラグ（auth_flg）の値を１（ユーザー編集不可）にする</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定ボタンが表示されていて押せてしまう。</t>
+    <rPh sb="0" eb="2">
       <t>カクテイ</t>
     </rPh>
-    <rPh sb="12" eb="13">
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>オ</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>表示はされているがグレーアウトになって押せない状態。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
       <t>オ</t>
     </rPh>
-    <rPh sb="25" eb="27">
-      <t>ゲツジ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ホウコクショ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>フカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>月次報告書テーブルの承認済みフラグの値が0（ユーザー編集可）の時、
-管理者ユーザーの画面に「確定」ボタンが表示される</t>
+    <rPh sb="23" eb="25">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>500エラー（This application has no explicit mapping for /error, so you are seeing this as a fallback.）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小数点以下が切り捨てられて計算される</t>
+    <rPh sb="0" eb="5">
+      <t>ショウスウテンイカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面下のボタンで画面遷移をした後ブラウザバックで勤務表画面に
+戻ると日付が1日からが繰り返し表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・初回は白紙の記入表が表示されたが、登録ボタンを押してブラウザバックすると「,,,,,,」と全ての記入欄に表示されてしまう。
+・勤務表画面を表示した回数の数、日付が繰り返し表示される。</t>
+    <rPh sb="1" eb="3">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハクシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>501エラー（This application has no explicit mapping for /error, so you are seeing this as a fallback.）</t>
+  </si>
+  <si>
+    <t>月次報告書テーブルに対象のデータが存在しない場合、「勤務報告書」画面を開いた時に
+「定時間」「稼働時間合計」「時間外合計」「プロジェクト名」「特記事項」の記入欄が空欄の勤務表が表示される。</t>
     <rPh sb="0" eb="5">
       <t>ゲツジホウコクショ</t>
     </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>キンムホウコクショ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="42" eb="45">
+      <t>テイジカン</t>
+    </rPh>
+    <rPh sb="47" eb="53">
+      <t>カドウジカンゴウケイ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>ジカンガイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>トッキ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>キニュウラン</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日次報告書テーブルに対象のデータが存在しない場合、「勤務報告書」画面を開いた時に
+「出社時間」「退社時間」「休憩時間」「稼働時間」「時間外労働時間」「備考」の記入欄が空欄の勤務表が表示される。</t>
+    <rPh sb="0" eb="5">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>キンムホウコクショ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>シュッシャジカン</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>タイシャジカン</t>
+    </rPh>
+    <rPh sb="54" eb="58">
+      <t>キュウケイジカン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="66" eb="73">
+      <t>ジカンガイロウドウジカン</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="79" eb="82">
+      <t>キニュウラン</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="86" eb="89">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録ボタンを押した際入力に不備が無ければ、
+入力データを日次テーブル（work_report_daily）へ登録し、登録された値の入った勤務表画面を表示。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="68" eb="73">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録ボタンを押した際入力に不備が無ければ、
+入力データを月次テーブル（work_report_monthly）へ登録し、登録された値の入った勤務表画面を表示。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>フビ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ゲツジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="70" eb="75">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した社員番号が正しく表示される</t>
+    <rPh sb="0" eb="5">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した年が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した月が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した日が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した出社時間が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュッシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した退社時間が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>タイシャ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した休憩時間が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>キュウケイジカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した稼働時間が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した時間外労働時間が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="31">
+      <t>ジカンガイロウドウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、日次報告書テーブルに登録した備考が正しく表示される</t>
+    <rPh sb="12" eb="17">
+      <t>ニチジホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した社員番号が正しく表示される</t>
+    <rPh sb="12" eb="14">
+      <t>ゲツジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>シャインバンゴウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した年が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した月が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウコク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した定時間が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>テイジカン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した稼働時間合計が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>カドウジカン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した時間外合計が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ジカンガイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録したプロジェクト名が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>勤務表画面を表示した時、月次報告書テーブルに登録した特記事項が正しく表示される</t>
+    <rPh sb="12" eb="13">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>トッキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ジコウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月次報告書（work_report_monthly）テーブルの承認済みフラグ（auth_flg）の値が0の時、管理者は勤務表画面の「確定」ボタンを押すことができ、ボタンを押すとフラグの値を１（ユーザー編集不可）にし、DBに登録された値の入った勤務表画面を表示する。（確定された為、表の値の変更は不可）</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツジ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホウコクショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="59" eb="64">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="114" eb="119">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="135" eb="136">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="140" eb="142">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月次報告書（work_report_monthly）テーブルの承認済みフラグ（auth_flg）の値が１の時、管理者は勤務表画面の「取消」ボタンを押すことができ、ボタンを押すとフラグの値を０（ユーザー編集可）にし、DBに登録された値の入った勤務表画面を表示する。（表の値の変更可）</t>
+    <rPh sb="53" eb="54">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="55" eb="58">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="59" eb="64">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="120" eb="125">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月次報告書テーブルの承認済みフラグの値が0（ユーザー編集可）の時、
+管理者ユーザーの開いている勤務表画面に「確定」ボタンが表示される</t>
+    <rPh sb="0" eb="5">
+      <t>ゲツジホウコクショ</t>
+    </rPh>
     <rPh sb="10" eb="13">
       <t>ショウニンズ</t>
     </rPh>
@@ -1874,180 +2168,89 @@
     <rPh sb="34" eb="37">
       <t>カンリシャ</t>
     </rPh>
-    <rPh sb="42" eb="44">
+    <rPh sb="42" eb="43">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ヒョウガメン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
       <t>ガメン</t>
     </rPh>
-    <rPh sb="46" eb="48">
+    <rPh sb="54" eb="56">
       <t>カクテイ</t>
     </rPh>
-    <rPh sb="53" eb="55">
+    <rPh sb="61" eb="63">
       <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「確定」ボタンを押した際、「出社」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
+    <t>月次報告書テーブルの承認済みフラグの値が１（ユーザー編集不可）の時、
+管理者ユーザーの開いている勤務表画面に「取消」ボタンが表示される</t>
+    <rPh sb="0" eb="5">
+      <t>ゲツジホウコクショ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ショウニンズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単体テスト実施時ユーザー情報直打ちの為、飛ばしました</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>シュッシャ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>キニュウケイシキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、「退社」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>タイシャ</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>キニュウケイシキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、「休憩時間」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>キュウケイジカン</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>キニュウケイシキ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、
-一日分の「出社」「退社」「休憩時間」が全て記入されていなければエラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチニチ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュッシャ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>タイシャ</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>キュウケイジカン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、「定時間」が未記入の場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイジカン</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ミキニュウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「確定」ボタンを押した際、「定時間」の記入形式が「hh:mm」でない場合エラーメッセージを表示</t>
-    <rPh sb="1" eb="3">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テイジカン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヒョウジ</t>
+      <t>ジカウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2170,7 +2373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2253,6 +2456,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2263,13 +2469,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3738,11 +3938,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -3809,50 +4009,58 @@
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="C7" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
@@ -3864,215 +4072,275 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" ht="51.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+      <c r="C11" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
+        <v>77</v>
+      </c>
+      <c r="C12" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
+        <v>29</v>
+      </c>
+      <c r="C14" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+      <c r="C21" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
+        <v>59</v>
+      </c>
+      <c r="C22" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -4084,606 +4352,700 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="27"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
-        <v>18</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="14"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="15"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
-        <v>19</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
-        <v>20</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="30"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
-        <v>21</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
+    </row>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
-        <v>24</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
-        <v>25</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
+        <v>34</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="18"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
-        <v>26</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
+        <v>35</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
+        <v>32</v>
+      </c>
+      <c r="C36" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="18"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="18"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>36</v>
+      </c>
+      <c r="C39" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7">
-        <v>31</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="33"/>
-    </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>40</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7">
-        <v>32</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="33"/>
+        <v>41</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="7"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
+      <c r="A42" s="7">
+        <v>42</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
+        <v>43</v>
+      </c>
+      <c r="C43" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="C44" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="33"/>
+      <c r="F45" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="18"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="18"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="33"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="33"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7">
-        <v>41</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="33"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="31"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="33"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
-      <c r="I54" s="33"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="31"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="33"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7">
-        <v>46</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>43</v>
+        <v>56</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
-      <c r="I56" s="33"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="33"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57" s="19"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="21"/>
+    </row>
+    <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7">
-        <v>48</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>47</v>
+        <v>58</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-      <c r="I59" s="33"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="21"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="33"/>
-    </row>
-    <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F60" s="19"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7">
-        <v>51</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>50</v>
+        <v>61</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="33"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="21"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="33"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="21"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="21"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="21"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="32"/>
-      <c r="I65" s="33"/>
-    </row>
-    <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65" s="19"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="21"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7">
-        <v>56</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>56</v>
+        <v>66</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
@@ -4695,361 +5057,212 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="21"/>
-    </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67" s="22"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="24"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7">
-        <v>58</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>58</v>
+        <v>68</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="21"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="24"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="21"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="24"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
+      <c r="A70" s="7">
+        <v>70</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="27"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="24"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="21"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="24"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="21"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="24"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="21"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="24"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="21"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="24"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="21"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="24"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="21"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="24"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="21"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="7">
-        <v>67</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="24"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="7">
-        <v>68</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="24"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="7">
-        <v>69</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="24"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="7">
-        <v>70</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="22"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="24"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="7">
-        <v>71</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="24"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="7">
-        <v>72</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="24"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="7">
-        <v>73</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="24"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="7">
-        <v>74</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="22"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="24"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="7">
-        <v>75</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="22"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="24"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="7">
-        <v>76</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="22"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="24"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="7">
-        <v>77</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="22"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="24"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="F63:I63"/>
-    <mergeCell ref="F64:I64"/>
+  <mergeCells count="41">
     <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F50:I50"/>
     <mergeCell ref="F51:I51"/>
     <mergeCell ref="F52:I52"/>
     <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F22:I22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5147,10 +5360,10 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
@@ -5168,10 +5381,10 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="33"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
@@ -5189,10 +5402,10 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="33"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
@@ -5202,10 +5415,10 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
@@ -5215,10 +5428,10 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="33"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
@@ -5228,10 +5441,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
@@ -5241,10 +5454,10 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="33"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
@@ -5254,10 +5467,10 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
@@ -5267,10 +5480,10 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="33"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
@@ -5280,10 +5493,10 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="33"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
@@ -5293,10 +5506,10 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="33"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
@@ -5306,10 +5519,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="33"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
@@ -5319,10 +5532,10 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
@@ -5332,10 +5545,10 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
@@ -5345,10 +5558,10 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
@@ -5358,10 +5571,10 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
@@ -5371,10 +5584,10 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="33"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
@@ -5384,10 +5597,10 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="33"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
@@ -5397,10 +5610,10 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7">
@@ -5410,10 +5623,10 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
@@ -5423,10 +5636,10 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="33"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
@@ -5436,10 +5649,10 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="33"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
@@ -5449,10 +5662,10 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="33"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
@@ -5462,10 +5675,10 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="33"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
@@ -5475,10 +5688,10 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="33"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
@@ -5488,10 +5701,10 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="33"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -5501,10 +5714,10 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
@@ -5514,10 +5727,10 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="33"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
@@ -5527,10 +5740,10 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="33"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
@@ -5540,10 +5753,10 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="33"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCF1E41-8354-40DB-951B-F2FEAAEEF6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A074AFF-C5F0-474F-B958-7353D528282D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="109">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1217,19 +1217,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>確定ボタンが表示されていて押せてしまう。</t>
-    <rPh sb="0" eb="2">
-      <t>カクテイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>表示はされているがグレーアウトになって押せない状態。</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -2000,19 +1987,7 @@
       <t>ホウコクショ</t>
     </rPh>
     <rPh sb="34" eb="36">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>トッキ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ジコウ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒョウジ</t>
+      <t>トウロクトッキジコウタダヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2251,6 +2226,145 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新日時は〇
+その他の項目で更新されない箇所があったので要確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新処理ができない</t>
+    <rPh sb="0" eb="4">
+      <t>コウシンショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定ボタンが表示されていて押せてしまう。</t>
+    <rPh sb="1" eb="3">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハクシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="66" eb="69">
+      <t>ヒョウガメン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>更新処理ができない</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示はDB通りだが、DBの更新処理ができない</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>コウシンショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面表示はDB通りだが、DBの更新処理ができない（５９参照）</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>コウシンショリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2460,7 +2574,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2469,7 +2583,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3940,9 +4054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45:I45"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -4023,10 +4137,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>73</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
@@ -4042,7 +4156,7 @@
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="29"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="31"/>
@@ -4057,7 +4171,7 @@
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="29"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
@@ -4072,7 +4186,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="29"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
@@ -4082,7 +4196,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="15">
         <v>44130</v>
@@ -4093,8 +4207,8 @@
       <c r="E11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>75</v>
+      <c r="F11" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
@@ -4105,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="15">
         <v>44130</v>
@@ -4116,8 +4230,8 @@
       <c r="E12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>75</v>
+      <c r="F12" s="29" t="s">
+        <v>74</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
@@ -4139,8 +4253,8 @@
       <c r="E13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>69</v>
+      <c r="F13" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
@@ -4162,8 +4276,8 @@
       <c r="E14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>70</v>
+      <c r="F14" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
@@ -4179,7 +4293,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="29"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="31"/>
@@ -4194,7 +4308,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
@@ -4204,12 +4318,12 @@
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
@@ -4219,12 +4333,12 @@
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
@@ -4234,12 +4348,12 @@
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="29"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="31"/>
@@ -4249,7 +4363,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -4275,8 +4389,8 @@
       <c r="E21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="32" t="s">
-        <v>71</v>
+      <c r="F21" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
@@ -4298,8 +4412,8 @@
       <c r="E22" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="32" t="s">
-        <v>76</v>
+      <c r="F22" s="29" t="s">
+        <v>75</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
@@ -4315,7 +4429,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="31"/>
@@ -4375,7 +4489,7 @@
       <c r="C27" s="15"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="29"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="31"/>
@@ -4390,7 +4504,7 @@
       <c r="C28" s="15"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="31"/>
@@ -4411,8 +4525,8 @@
       <c r="E29" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="29" t="s">
-        <v>72</v>
+      <c r="F29" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
@@ -4434,8 +4548,8 @@
       <c r="E30" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F30" s="29" t="s">
-        <v>73</v>
+      <c r="F30" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -4446,12 +4560,12 @@
         <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="29"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="31"/>
@@ -4461,12 +4575,12 @@
         <v>32</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="29"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
       <c r="I32" s="31"/>
@@ -4487,7 +4601,7 @@
       <c r="E33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
       <c r="I33" s="31"/>
@@ -4529,7 +4643,7 @@
       <c r="E35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
@@ -4592,7 +4706,7 @@
       <c r="E38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="29"/>
+      <c r="F38" s="32"/>
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
@@ -4613,7 +4727,7 @@
       <c r="E39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="29"/>
+      <c r="F39" s="32"/>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
@@ -4655,7 +4769,7 @@
       <c r="E41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="29"/>
+      <c r="F41" s="32"/>
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
       <c r="I41" s="31"/>
@@ -4676,7 +4790,7 @@
       <c r="E42" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="29"/>
+      <c r="F42" s="32"/>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="I42" s="31"/>
@@ -4697,7 +4811,7 @@
       <c r="E43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="29"/>
+      <c r="F43" s="32"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="31"/>
@@ -4718,7 +4832,7 @@
       <c r="E44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="29"/>
+      <c r="F44" s="32"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
       <c r="I44" s="31"/>
@@ -4733,8 +4847,8 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="29" t="s">
-        <v>103</v>
+      <c r="F45" s="32" t="s">
+        <v>102</v>
       </c>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
@@ -4747,10 +4861,16 @@
       <c r="B46" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="29"/>
+      <c r="C46" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F46" s="32"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="31"/>
@@ -4762,10 +4882,16 @@
       <c r="B47" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="29"/>
+      <c r="C47" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" s="32"/>
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="31"/>
@@ -4777,10 +4903,16 @@
       <c r="B48" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="29"/>
+      <c r="C48" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" s="32"/>
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
@@ -4792,10 +4924,16 @@
       <c r="B49" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="29"/>
+      <c r="C49" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" s="32"/>
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="31"/>
@@ -4807,10 +4945,16 @@
       <c r="B50" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="29"/>
+      <c r="C50" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D50" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" s="32"/>
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
       <c r="I50" s="31"/>
@@ -4822,10 +4966,16 @@
       <c r="B51" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="29"/>
+      <c r="C51" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="32"/>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
       <c r="I51" s="31"/>
@@ -4837,10 +4987,16 @@
       <c r="B52" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="29"/>
+      <c r="C52" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="32"/>
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="31"/>
@@ -4852,10 +5008,16 @@
       <c r="B53" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="29"/>
+      <c r="C53" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F53" s="32"/>
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
       <c r="I53" s="31"/>
@@ -4870,7 +5032,7 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="29"/>
+      <c r="F54" s="32"/>
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
       <c r="I54" s="31"/>
@@ -4882,10 +5044,16 @@
       <c r="B55" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="29"/>
+      <c r="C55" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F55" s="32"/>
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
       <c r="I55" s="31"/>
@@ -4897,9 +5065,15 @@
       <c r="B56" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
+      <c r="C56" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F56" s="19"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
@@ -4912,9 +5086,15 @@
       <c r="B57" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
+      <c r="C57" s="15">
+        <v>44130</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F57" s="19"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
@@ -4930,36 +5110,52 @@
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="19"/>
+      <c r="F58" s="19" t="s">
+        <v>102</v>
+      </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="21"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7">
         <v>59</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="21"/>
+      <c r="C59" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="31"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7">
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="C60" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F60" s="19"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
@@ -4970,11 +5166,17 @@
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+        <v>81</v>
+      </c>
+      <c r="C61" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F61" s="19"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
@@ -4985,11 +5187,17 @@
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+        <v>82</v>
+      </c>
+      <c r="C62" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F62" s="19"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
@@ -5000,11 +5208,17 @@
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="C63" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F63" s="19"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
@@ -5015,11 +5229,17 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="C64" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F64" s="19"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
@@ -5030,11 +5250,17 @@
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
+        <v>85</v>
+      </c>
+      <c r="C65" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F65" s="19"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
@@ -5045,11 +5271,17 @@
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
+        <v>86</v>
+      </c>
+      <c r="C66" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F66" s="19"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
@@ -5060,11 +5292,17 @@
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="C67" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F67" s="22"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
@@ -5075,11 +5313,17 @@
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="C68" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F68" s="22"/>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
@@ -5090,11 +5334,17 @@
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
+        <v>89</v>
+      </c>
+      <c r="C69" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F69" s="22"/>
       <c r="G69" s="23"/>
       <c r="H69" s="23"/>
@@ -5105,11 +5355,17 @@
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="C70" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F70" s="22"/>
       <c r="G70" s="23"/>
       <c r="H70" s="23"/>
@@ -5120,11 +5376,17 @@
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
+        <v>91</v>
+      </c>
+      <c r="C71" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F71" s="22"/>
       <c r="G71" s="23"/>
       <c r="H71" s="23"/>
@@ -5135,11 +5397,17 @@
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
+        <v>92</v>
+      </c>
+      <c r="C72" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F72" s="22"/>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
@@ -5150,11 +5418,17 @@
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
+        <v>93</v>
+      </c>
+      <c r="C73" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="F73" s="22"/>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
@@ -5165,63 +5439,95 @@
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="24"/>
+        <v>94</v>
+      </c>
+      <c r="C74" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D74" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F74" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="31"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7">
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="24"/>
+        <v>95</v>
+      </c>
+      <c r="C75" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="31"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7">
         <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="24"/>
+        <v>96</v>
+      </c>
+      <c r="C76" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="31"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7">
         <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="24"/>
+        <v>97</v>
+      </c>
+      <c r="C77" s="15">
+        <v>44131</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="46">
     <mergeCell ref="F55:I55"/>
     <mergeCell ref="F50:I50"/>
     <mergeCell ref="F51:I51"/>
@@ -5263,6 +5569,11 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5360,7 +5671,7 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="31"/>
@@ -5381,7 +5692,7 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="31"/>
@@ -5402,7 +5713,7 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
@@ -5415,7 +5726,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="29"/>
+      <c r="F10" s="32"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
@@ -5428,7 +5739,7 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="29"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
@@ -5441,7 +5752,7 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="29"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="31"/>
@@ -5454,7 +5765,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="29"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
@@ -5467,7 +5778,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="29"/>
+      <c r="F14" s="32"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="31"/>
@@ -5480,7 +5791,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="29"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="31"/>
@@ -5493,7 +5804,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
@@ -5506,7 +5817,7 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="29"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
@@ -5519,7 +5830,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="29"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
@@ -5532,7 +5843,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="29"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="31"/>
@@ -5545,7 +5856,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="29"/>
+      <c r="F20" s="32"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="31"/>
@@ -5558,7 +5869,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="29"/>
+      <c r="F21" s="32"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="31"/>
@@ -5571,7 +5882,7 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="29"/>
+      <c r="F22" s="32"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
@@ -5584,7 +5895,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="29"/>
+      <c r="F23" s="32"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="31"/>
@@ -5597,7 +5908,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="29"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="31"/>
@@ -5610,7 +5921,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="29"/>
+      <c r="F25" s="32"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="31"/>
@@ -5623,7 +5934,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="29"/>
+      <c r="F26" s="32"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
@@ -5636,7 +5947,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="29"/>
+      <c r="F27" s="32"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="31"/>
@@ -5649,7 +5960,7 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="31"/>
@@ -5662,7 +5973,7 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="29"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="31"/>
@@ -5675,7 +5986,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="29"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="31"/>
@@ -5688,7 +5999,7 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="29"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="31"/>
@@ -5701,7 +6012,7 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="29"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
       <c r="I32" s="31"/>
@@ -5714,7 +6025,7 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="29"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
       <c r="I33" s="31"/>
@@ -5727,7 +6038,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="29"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
       <c r="I34" s="31"/>
@@ -5740,7 +6051,7 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="29"/>
+      <c r="F35" s="32"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
@@ -5753,7 +6064,7 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="29"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A074AFF-C5F0-474F-B958-7353D528282D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4C3941EA-523C-42B0-BE18-26D6D729CF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,7 @@
     <sheet name="記入例" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="119">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1213,10 +1214,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>×</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>表示はされているがグレーアウトになって押せない状態。</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジ</t>
@@ -1253,47 +1250,6 @@
     <t>同上</t>
     <rPh sb="0" eb="2">
       <t>ドウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>画面下のボタンで画面遷移をした後ブラウザバックで勤務表画面に
-戻ると日付が1日からが繰り返し表示される</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>キンムヒョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1366,9 +1322,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>501エラー（This application has no explicit mapping for /error, so you are seeing this as a fallback.）</t>
-  </si>
-  <si>
     <t>月次報告書テーブルに対象のデータが存在しない場合、「勤務報告書」画面を開いた時に
 「定時間」「稼働時間合計」「時間外合計」「プロジェクト名」「特記事項」の記入欄が空欄の勤務表が表示される。</t>
     <rPh sb="0" eb="5">
@@ -2230,11 +2183,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>更新日時は〇
-その他の項目で更新されない箇所があったので要確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>更新処理ができない</t>
     <rPh sb="0" eb="4">
       <t>コウシンショリ</t>
@@ -2259,49 +2207,7 @@
       <t>ヒョウジ</t>
     </rPh>
     <rPh sb="18" eb="20">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="66" eb="69">
-      <t>ヒョウガメン</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ヒョウジ</t>
+      <t>トウロクオスベキニュウランヒョウジキンムヒョウガメンヒョウジカイスウカズヒヅケクカエヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2311,25 +2217,7 @@
       <t>コウシン</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カクニン</t>
+      <t>ニチジタコウモクコウシンカショヨウカクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2365,6 +2253,156 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンのレイアウトが崩れてしまう。</t>
+    <rPh sb="10" eb="11">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/26
+2020/10/28</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG
+OK</t>
+  </si>
+  <si>
+    <t>更新日時はOK
+その他の項目で更新されない箇所があったので要確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG
+OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未実装の為飛ばしました</t>
+    <rPh sb="0" eb="3">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確定ボタンを押しても承認済みフラグの値が更新されない</t>
+    <rPh sb="0" eb="2">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ショウニンズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取消ボタンを押しても画面遷移しない。
+勤務表の登録・更新が出来てしまう。</t>
+    <rPh sb="0" eb="2">
+      <t>トリケシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>デキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG
+NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元の勤務表画面にエラーメッセージが出ず、エラーページに飛ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目20と同様の処理が未実装とのことで飛ばしました</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドウヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理が未実装の為飛ばしました</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2403,7 +2441,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2419,6 +2457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2487,7 +2531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2574,7 +2618,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2583,7 +2627,31 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4054,9 +4122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -4130,17 +4198,17 @@
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="15">
-        <v>44130</v>
+      <c r="C7" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>73</v>
+      <c r="E7" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
@@ -4153,10 +4221,16 @@
       <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="29"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="31"/>
@@ -4168,47 +4242,55 @@
       <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="32"/>
+      <c r="C9" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="29"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7">
+      <c r="A10" s="33">
         <v>4</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="51.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="15">
-        <v>44130</v>
+        <v>74</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>74</v>
+      <c r="E11" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
@@ -4219,19 +4301,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="15">
-        <v>44130</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>74</v>
+      <c r="E12" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
@@ -4244,17 +4326,17 @@
       <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="15">
-        <v>44130</v>
+      <c r="C13" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="32" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>101</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
@@ -4267,17 +4349,17 @@
       <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="15">
-        <v>44130</v>
+      <c r="C14" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="32" t="s">
-        <v>69</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
@@ -4293,7 +4375,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="31"/>
@@ -4308,7 +4390,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
@@ -4318,12 +4400,20 @@
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="32"/>
+        <v>95</v>
+      </c>
+      <c r="C17" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>113</v>
+      </c>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
@@ -4333,12 +4423,20 @@
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="32"/>
+        <v>96</v>
+      </c>
+      <c r="C18" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>114</v>
+      </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
@@ -4348,12 +4446,18 @@
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="32"/>
+        <v>97</v>
+      </c>
+      <c r="C19" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="29"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="31"/>
@@ -4363,57 +4467,63 @@
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+        <v>98</v>
+      </c>
+      <c r="C20" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
       <c r="I20" s="27"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
         <v>15</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="15">
-        <v>44130</v>
+      <c r="C21" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>70</v>
+      <c r="E21" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
         <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="15">
-        <v>44130</v>
+      <c r="C22" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>75</v>
+      <c r="E22" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
@@ -4426,10 +4536,16 @@
       <c r="B23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="32"/>
+      <c r="C23" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="29"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="31"/>
@@ -4441,115 +4557,131 @@
       <c r="B24" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
+      <c r="C24" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7">
+      <c r="A25" s="33">
         <v>21</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7">
+      <c r="A26" s="33">
         <v>22</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7">
+      <c r="A27" s="33">
         <v>27</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7">
+      <c r="A28" s="33">
         <v>28</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="40"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="15">
-        <v>44130</v>
+      <c r="C29" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>71</v>
+      <c r="E29" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>70</v>
       </c>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="15">
-        <v>44130</v>
+      <c r="C30" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>72</v>
+      <c r="E30" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -4560,12 +4692,12 @@
         <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="29"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="31"/>
@@ -4575,12 +4707,12 @@
         <v>32</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="32"/>
+      <c r="F32" s="29"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
       <c r="I32" s="31"/>
@@ -4601,7 +4733,7 @@
       <c r="E33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="32"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
       <c r="I33" s="31"/>
@@ -4643,7 +4775,7 @@
       <c r="E35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="32"/>
+      <c r="F35" s="29"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
@@ -4706,7 +4838,7 @@
       <c r="E38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="32"/>
+      <c r="F38" s="29"/>
       <c r="G38" s="30"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
@@ -4727,7 +4859,7 @@
       <c r="E39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="32"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
@@ -4769,7 +4901,7 @@
       <c r="E41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="32"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="30"/>
       <c r="H41" s="30"/>
       <c r="I41" s="31"/>
@@ -4790,7 +4922,7 @@
       <c r="E42" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="32"/>
+      <c r="F42" s="29"/>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="I42" s="31"/>
@@ -4811,7 +4943,7 @@
       <c r="E43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="32"/>
+      <c r="F43" s="29"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="31"/>
@@ -4832,7 +4964,7 @@
       <c r="E44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="32"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="30"/>
       <c r="H44" s="30"/>
       <c r="I44" s="31"/>
@@ -4847,8 +4979,8 @@
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="32" t="s">
-        <v>102</v>
+      <c r="F45" s="29" t="s">
+        <v>99</v>
       </c>
       <c r="G45" s="30"/>
       <c r="H45" s="30"/>
@@ -4870,7 +5002,7 @@
       <c r="E46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="32"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="30"/>
       <c r="H46" s="30"/>
       <c r="I46" s="31"/>
@@ -4891,7 +5023,7 @@
       <c r="E47" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="32"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="30"/>
       <c r="H47" s="30"/>
       <c r="I47" s="31"/>
@@ -4912,7 +5044,7 @@
       <c r="E48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="32"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="31"/>
@@ -4933,7 +5065,7 @@
       <c r="E49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="29"/>
       <c r="G49" s="30"/>
       <c r="H49" s="30"/>
       <c r="I49" s="31"/>
@@ -4954,7 +5086,7 @@
       <c r="E50" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="32"/>
+      <c r="F50" s="29"/>
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
       <c r="I50" s="31"/>
@@ -4975,7 +5107,7 @@
       <c r="E51" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="32"/>
+      <c r="F51" s="29"/>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
       <c r="I51" s="31"/>
@@ -4996,7 +5128,7 @@
       <c r="E52" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="29"/>
       <c r="G52" s="30"/>
       <c r="H52" s="30"/>
       <c r="I52" s="31"/>
@@ -5017,7 +5149,7 @@
       <c r="E53" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="32"/>
+      <c r="F53" s="29"/>
       <c r="G53" s="30"/>
       <c r="H53" s="30"/>
       <c r="I53" s="31"/>
@@ -5032,7 +5164,7 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="32"/>
+      <c r="F54" s="29"/>
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
       <c r="I54" s="31"/>
@@ -5053,7 +5185,7 @@
       <c r="E55" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="32"/>
+      <c r="F55" s="29"/>
       <c r="G55" s="30"/>
       <c r="H55" s="30"/>
       <c r="I55" s="31"/>
@@ -5111,7 +5243,7 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
@@ -5133,8 +5265,8 @@
       <c r="E59" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F59" s="29" t="s">
-        <v>103</v>
+      <c r="F59" s="32" t="s">
+        <v>110</v>
       </c>
       <c r="G59" s="30"/>
       <c r="H59" s="30"/>
@@ -5145,7 +5277,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C60" s="15">
         <v>44131</v>
@@ -5166,7 +5298,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C61" s="15">
         <v>44131</v>
@@ -5187,7 +5319,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C62" s="15">
         <v>44131</v>
@@ -5208,7 +5340,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C63" s="15">
         <v>44131</v>
@@ -5229,7 +5361,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C64" s="15">
         <v>44131</v>
@@ -5250,7 +5382,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C65" s="15">
         <v>44131</v>
@@ -5271,7 +5403,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C66" s="15">
         <v>44131</v>
@@ -5292,7 +5424,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C67" s="15">
         <v>44131</v>
@@ -5313,7 +5445,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C68" s="15">
         <v>44131</v>
@@ -5334,7 +5466,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C69" s="15">
         <v>44131</v>
@@ -5355,7 +5487,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C70" s="15">
         <v>44131</v>
@@ -5376,7 +5508,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C71" s="15">
         <v>44131</v>
@@ -5397,7 +5529,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C72" s="15">
         <v>44131</v>
@@ -5418,7 +5550,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C73" s="15">
         <v>44131</v>
@@ -5439,7 +5571,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C74" s="15">
         <v>44131</v>
@@ -5448,10 +5580,10 @@
         <v>18</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F74" s="32" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="G74" s="30"/>
       <c r="H74" s="30"/>
@@ -5462,7 +5594,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C75" s="15">
         <v>44131</v>
@@ -5471,10 +5603,10 @@
         <v>18</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F75" s="32" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="G75" s="30"/>
       <c r="H75" s="30"/>
@@ -5485,7 +5617,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="15">
         <v>44131</v>
@@ -5496,8 +5628,8 @@
       <c r="E76" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F76" s="32" t="s">
-        <v>107</v>
+      <c r="F76" s="29" t="s">
+        <v>103</v>
       </c>
       <c r="G76" s="30"/>
       <c r="H76" s="30"/>
@@ -5508,7 +5640,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C77" s="15">
         <v>44131</v>
@@ -5519,40 +5651,24 @@
       <c r="E77" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F77" s="32" t="s">
-        <v>108</v>
+      <c r="F77" s="29" t="s">
+        <v>104</v>
       </c>
       <c r="G77" s="30"/>
       <c r="H77" s="30"/>
       <c r="I77" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F44:I44"/>
+  <mergeCells count="49">
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
@@ -5569,11 +5685,30 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5671,7 +5806,7 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="29"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="31"/>
@@ -5692,7 +5827,7 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="31"/>
@@ -5713,7 +5848,7 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="30"/>
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
@@ -5726,7 +5861,7 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="32"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="30"/>
       <c r="H10" s="30"/>
       <c r="I10" s="31"/>
@@ -5739,7 +5874,7 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="32"/>
+      <c r="F11" s="29"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
@@ -5752,7 +5887,7 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="32"/>
+      <c r="F12" s="29"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="31"/>
@@ -5765,7 +5900,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="32"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="31"/>
@@ -5778,7 +5913,7 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="32"/>
+      <c r="F14" s="29"/>
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="31"/>
@@ -5791,7 +5926,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="32"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="31"/>
@@ -5804,7 +5939,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="32"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="30"/>
       <c r="H16" s="30"/>
       <c r="I16" s="31"/>
@@ -5817,7 +5952,7 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="32"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="30"/>
       <c r="H17" s="30"/>
       <c r="I17" s="31"/>
@@ -5830,7 +5965,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
       <c r="I18" s="31"/>
@@ -5843,7 +5978,7 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="30"/>
       <c r="H19" s="30"/>
       <c r="I19" s="31"/>
@@ -5856,7 +5991,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="32"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
       <c r="I20" s="31"/>
@@ -5869,7 +6004,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="32"/>
+      <c r="F21" s="29"/>
       <c r="G21" s="30"/>
       <c r="H21" s="30"/>
       <c r="I21" s="31"/>
@@ -5882,7 +6017,7 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="32"/>
+      <c r="F22" s="29"/>
       <c r="G22" s="30"/>
       <c r="H22" s="30"/>
       <c r="I22" s="31"/>
@@ -5895,7 +6030,7 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="32"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="30"/>
       <c r="H23" s="30"/>
       <c r="I23" s="31"/>
@@ -5908,7 +6043,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="32"/>
+      <c r="F24" s="29"/>
       <c r="G24" s="30"/>
       <c r="H24" s="30"/>
       <c r="I24" s="31"/>
@@ -5921,7 +6056,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="32"/>
+      <c r="F25" s="29"/>
       <c r="G25" s="30"/>
       <c r="H25" s="30"/>
       <c r="I25" s="31"/>
@@ -5934,7 +6069,7 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="32"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="30"/>
       <c r="H26" s="30"/>
       <c r="I26" s="31"/>
@@ -5947,7 +6082,7 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="32"/>
+      <c r="F27" s="29"/>
       <c r="G27" s="30"/>
       <c r="H27" s="30"/>
       <c r="I27" s="31"/>
@@ -5960,7 +6095,7 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="32"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="31"/>
@@ -5973,7 +6108,7 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="32"/>
+      <c r="F29" s="29"/>
       <c r="G29" s="30"/>
       <c r="H29" s="30"/>
       <c r="I29" s="31"/>
@@ -5986,7 +6121,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="32"/>
+      <c r="F30" s="29"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
       <c r="I30" s="31"/>
@@ -5999,7 +6134,7 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="29"/>
       <c r="G31" s="30"/>
       <c r="H31" s="30"/>
       <c r="I31" s="31"/>
@@ -6012,7 +6147,7 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="32"/>
+      <c r="F32" s="29"/>
       <c r="G32" s="30"/>
       <c r="H32" s="30"/>
       <c r="I32" s="31"/>
@@ -6025,7 +6160,7 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="32"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="30"/>
       <c r="H33" s="30"/>
       <c r="I33" s="31"/>
@@ -6038,7 +6173,7 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="32"/>
+      <c r="F34" s="29"/>
       <c r="G34" s="30"/>
       <c r="H34" s="30"/>
       <c r="I34" s="31"/>
@@ -6051,7 +6186,7 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="32"/>
+      <c r="F35" s="29"/>
       <c r="G35" s="30"/>
       <c r="H35" s="30"/>
       <c r="I35" s="31"/>
@@ -6064,23 +6199,21 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="32"/>
+      <c r="F36" s="29"/>
       <c r="G36" s="30"/>
       <c r="H36" s="30"/>
       <c r="I36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F15:I15"/>
     <mergeCell ref="F16:I16"/>
@@ -6093,14 +6226,16 @@
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
@@ -3,16 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4C3941EA-523C-42B0-BE18-26D6D729CF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98813E6E-F064-4859-B733-B80AB2FBCFC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-240" yWindow="740" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
     <sheet name="記入例" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="122">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1200,10 +1199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>高橋</t>
     <rPh sb="0" eb="1">
       <t>コウ</t>
@@ -2158,31 +2153,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>単体テスト実施時ユーザー情報直打ちの為、飛ばしました</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジカウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>更新処理ができない</t>
     <rPh sb="0" eb="4">
       <t>コウシンショリ</t>
@@ -2403,6 +2373,137 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録は行われるが、その後の勤務表画面の表示が
+初回登録時の時はできない。
+※データが登録されている勤務表に追加で登録する際にも、
+　条件は不明だが稀にエラーページに遷移した。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>マレ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/27
+2020/10/29</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△
+OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更不可の処理は問題ないが、登録ボタンを押した後の画面遷移で
+勤務表画面ではなくエラーページに行ってしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="31" eb="36">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者が他ユーザーの登録情報を書き換えて登録できない。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2617,18 +2718,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2641,6 +2730,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2649,9 +2753,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4122,9 +4223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59:I59"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -4198,21 +4299,21 @@
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>106</v>
+      <c r="C7" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
@@ -4230,10 +4331,10 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
@@ -4251,73 +4352,73 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
         <v>4</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" ht="51.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>106</v>
+        <v>73</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+        <v>107</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
@@ -4326,21 +4427,21 @@
       <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>106</v>
+      <c r="C13" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+        <v>105</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
@@ -4349,21 +4450,21 @@
       <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>106</v>
+      <c r="C14" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
@@ -4372,13 +4473,19 @@
       <c r="B15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="C15" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
@@ -4387,20 +4494,28 @@
       <c r="B16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="C16" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="15">
         <v>44132</v>
@@ -4409,21 +4524,21 @@
         <v>18</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+        <v>106</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C18" s="15">
         <v>44132</v>
@@ -4432,21 +4547,21 @@
         <v>18</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+        <v>106</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="15">
         <v>44132</v>
@@ -4457,17 +4572,17 @@
       <c r="E19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="15">
         <v>44132</v>
@@ -4490,21 +4605,21 @@
       <c r="B21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>106</v>
+      <c r="C21" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+        <v>109</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
@@ -4513,21 +4628,21 @@
       <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>106</v>
+      <c r="C22" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+        <v>113</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
@@ -4545,10 +4660,10 @@
       <c r="E23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
@@ -4564,82 +4679,82 @@
         <v>18</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="29">
+        <v>21</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="29">
+        <v>22</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="29">
+        <v>27</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="33">
-        <v>21</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33">
-        <v>22</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="33">
-        <v>27</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33">
+      <c r="A28" s="29">
         <v>28</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
     </row>
     <row r="29" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
@@ -4648,21 +4763,21 @@
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>106</v>
+      <c r="C29" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
+        <v>113</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
@@ -4671,51 +4786,67 @@
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>106</v>
+      <c r="C30" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>113</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:9" ht="65.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
         <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="C31" s="15">
+        <v>44133</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
         <v>32</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
+        <v>75</v>
+      </c>
+      <c r="C32" s="15">
+        <v>44133</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -4733,10 +4864,10 @@
       <c r="E33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
@@ -4775,10 +4906,10 @@
       <c r="E35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
@@ -4838,10 +4969,10 @@
       <c r="E38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7">
@@ -4859,10 +4990,10 @@
       <c r="E39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7">
@@ -4901,10 +5032,10 @@
       <c r="E41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7">
@@ -4922,10 +5053,10 @@
       <c r="E42" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7">
@@ -4943,10 +5074,10 @@
       <c r="E43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7">
@@ -4964,10 +5095,10 @@
       <c r="E44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7">
@@ -4976,15 +5107,21 @@
       <c r="B45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
+      <c r="C45" s="15">
+        <v>44133</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="36"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7">
@@ -5002,10 +5139,10 @@
       <c r="E46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="31"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7">
@@ -5023,10 +5160,10 @@
       <c r="E47" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7">
@@ -5044,10 +5181,10 @@
       <c r="E48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7">
@@ -5065,10 +5202,10 @@
       <c r="E49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="36"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7">
@@ -5086,10 +5223,10 @@
       <c r="E50" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="31"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="36"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7">
@@ -5107,10 +5244,10 @@
       <c r="E51" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="36"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7">
@@ -5128,10 +5265,10 @@
       <c r="E52" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="31"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="36"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7">
@@ -5149,10 +5286,10 @@
       <c r="E53" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="31"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7">
@@ -5164,10 +5301,10 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="31"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="36"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7">
@@ -5185,10 +5322,10 @@
       <c r="E55" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="31"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="36"/>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7">
@@ -5239,15 +5376,21 @@
       <c r="B58" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
+      <c r="C58" s="15">
+        <v>44133</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="36"/>
     </row>
     <row r="59" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7">
@@ -5256,28 +5399,28 @@
       <c r="B59" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="15">
-        <v>44131</v>
+      <c r="C59" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="31"/>
+      <c r="E59" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7">
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="15">
         <v>44131</v>
@@ -5298,7 +5441,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="15">
         <v>44131</v>
@@ -5319,7 +5462,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="15">
         <v>44131</v>
@@ -5340,7 +5483,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="15">
         <v>44131</v>
@@ -5361,7 +5504,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="15">
         <v>44131</v>
@@ -5382,7 +5525,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="15">
         <v>44131</v>
@@ -5403,7 +5546,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="15">
         <v>44131</v>
@@ -5424,7 +5567,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="15">
         <v>44131</v>
@@ -5445,7 +5588,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="15">
         <v>44131</v>
@@ -5466,7 +5609,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="15">
         <v>44131</v>
@@ -5487,7 +5630,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="15">
         <v>44131</v>
@@ -5508,7 +5651,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="15">
         <v>44131</v>
@@ -5529,7 +5672,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="15">
         <v>44131</v>
@@ -5550,7 +5693,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="15">
         <v>44131</v>
@@ -5566,110 +5709,120 @@
       <c r="H73" s="23"/>
       <c r="I73" s="24"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7">
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="15">
-        <v>44131</v>
+        <v>90</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="31"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="36"/>
+    </row>
+    <row r="75" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7">
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="15">
-        <v>44131</v>
+        <v>91</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="31"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F75" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="36"/>
+    </row>
+    <row r="76" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7">
         <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="15">
-        <v>44131</v>
+        <v>92</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="31"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F76" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="36"/>
+    </row>
+    <row r="77" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7">
         <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="15">
-        <v>44131</v>
+        <v>93</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="31"/>
+      <c r="E77" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
+  <mergeCells count="50">
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F58:I58"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F74:I74"/>
     <mergeCell ref="F75:I75"/>
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -5698,17 +5851,8 @@
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5806,10 +5950,10 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
@@ -5827,10 +5971,10 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
@@ -5848,10 +5992,10 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
@@ -5861,10 +6005,10 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
@@ -5874,10 +6018,10 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
@@ -5887,10 +6031,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
@@ -5900,10 +6044,10 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
@@ -5913,10 +6057,10 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
@@ -5926,10 +6070,10 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
@@ -5939,10 +6083,10 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
@@ -5952,10 +6096,10 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
@@ -5965,10 +6109,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
@@ -5978,10 +6122,10 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
@@ -5991,10 +6135,10 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
@@ -6004,10 +6148,10 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
@@ -6017,10 +6161,10 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
@@ -6030,10 +6174,10 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
@@ -6043,10 +6187,10 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
@@ -6056,10 +6200,10 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7">
@@ -6069,10 +6213,10 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
@@ -6082,10 +6226,10 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
@@ -6095,10 +6239,10 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
@@ -6108,10 +6252,10 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
@@ -6121,10 +6265,10 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
@@ -6134,10 +6278,10 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
@@ -6147,10 +6291,10 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -6160,10 +6304,10 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
@@ -6173,10 +6317,10 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
@@ -6186,10 +6330,10 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
@@ -6199,10 +6343,10 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98813E6E-F064-4859-B733-B80AB2FBCFC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4C3941EA-523C-42B0-BE18-26D6D729CF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-240" yWindow="740" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
     <sheet name="記入例" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="119">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1199,6 +1200,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>△</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>高橋</t>
     <rPh sb="0" eb="1">
       <t>コウ</t>
@@ -2153,6 +2158,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>単体テスト実施時ユーザー情報直打ちの為、飛ばしました</t>
+    <rPh sb="0" eb="2">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジカウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タメ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>更新処理ができない</t>
     <rPh sb="0" eb="4">
       <t>コウシンショリ</t>
@@ -2373,137 +2403,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録は行われるが、その後の勤務表画面の表示が
-初回登録時の時はできない。
-※データが登録されている勤務表に追加で登録する際にも、
-　条件は不明だが稀にエラーページに遷移した。</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="13" eb="18">
-      <t>キンムヒョウガメン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショカイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>キンムヒョウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>フメイ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>マレ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2020/10/27
-2020/10/29</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>△
-OK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変更不可の処理は問題ないが、登録ボタンを押した後の画面遷移で
-勤務表画面ではなくエラーページに行ってしまう</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="25" eb="29">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <rPh sb="31" eb="36">
-      <t>キンムヒョウガメン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>管理者が他ユーザーの登録情報を書き換えて登録できない。</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2718,6 +2617,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2730,21 +2641,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2753,6 +2649,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4223,9 +4122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -4299,21 +4198,21 @@
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>104</v>
+      <c r="C7" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F7" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+        <v>111</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
@@ -4331,10 +4230,10 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
@@ -4352,73 +4251,73 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="29">
+      <c r="A10" s="33">
         <v>4</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="51.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>104</v>
+        <v>74</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+        <v>109</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+        <v>111</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
@@ -4427,21 +4326,21 @@
       <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>104</v>
+      <c r="C13" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+        <v>107</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
@@ -4450,21 +4349,21 @@
       <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="30" t="s">
-        <v>104</v>
+      <c r="C14" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+        <v>111</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
@@ -4473,19 +4372,13 @@
       <c r="B15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="15">
-        <v>44132</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
@@ -4494,28 +4387,20 @@
       <c r="B16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="15">
-        <v>44132</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F16" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17" s="15">
         <v>44132</v>
@@ -4524,21 +4409,21 @@
         <v>18</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+        <v>108</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C18" s="15">
         <v>44132</v>
@@ -4547,21 +4432,21 @@
         <v>18</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+        <v>108</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C19" s="15">
         <v>44132</v>
@@ -4572,17 +4457,17 @@
       <c r="E19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C20" s="15">
         <v>44132</v>
@@ -4605,21 +4490,21 @@
       <c r="B21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="30" t="s">
-        <v>104</v>
+      <c r="C21" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
+        <v>111</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
@@ -4628,21 +4513,21 @@
       <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>104</v>
+      <c r="C22" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F22" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
+        <v>115</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
@@ -4660,10 +4545,10 @@
       <c r="E23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
@@ -4679,82 +4564,82 @@
         <v>18</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
+        <v>108</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="29">
+      <c r="A25" s="33">
         <v>21</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="39"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="29">
+      <c r="A26" s="33">
         <v>22</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="29">
+      <c r="A27" s="33">
         <v>27</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="29">
+      <c r="A28" s="33">
         <v>28</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
@@ -4763,21 +4648,21 @@
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>104</v>
+      <c r="C29" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
+        <v>115</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
@@ -4786,67 +4671,51 @@
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="30" t="s">
-        <v>104</v>
+      <c r="C30" s="34" t="s">
+        <v>106</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-    </row>
-    <row r="31" spans="1:9" ht="65.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>115</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
         <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="15">
-        <v>44133</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
         <v>32</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="15">
-        <v>44133</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
+        <v>76</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -4864,10 +4733,10 @@
       <c r="E33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
@@ -4906,10 +4775,10 @@
       <c r="E35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
@@ -4969,10 +4838,10 @@
       <c r="E38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7">
@@ -4990,10 +4859,10 @@
       <c r="E39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="31"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7">
@@ -5032,10 +4901,10 @@
       <c r="E41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="36"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7">
@@ -5053,10 +4922,10 @@
       <c r="E42" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="36"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7">
@@ -5074,10 +4943,10 @@
       <c r="E43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7">
@@ -5095,10 +4964,10 @@
       <c r="E44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7">
@@ -5107,21 +4976,15 @@
       <c r="B45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="15">
-        <v>44133</v>
-      </c>
-      <c r="D45" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="36"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7">
@@ -5139,10 +5002,10 @@
       <c r="E46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7">
@@ -5160,10 +5023,10 @@
       <c r="E47" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="36"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7">
@@ -5181,10 +5044,10 @@
       <c r="E48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7">
@@ -5202,10 +5065,10 @@
       <c r="E49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="36"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7">
@@ -5223,10 +5086,10 @@
       <c r="E50" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="36"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7">
@@ -5244,10 +5107,10 @@
       <c r="E51" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="36"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="31"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7">
@@ -5265,10 +5128,10 @@
       <c r="E52" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="36"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="31"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7">
@@ -5286,10 +5149,10 @@
       <c r="E53" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="36"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7">
@@ -5301,10 +5164,10 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="36"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="31"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7">
@@ -5322,10 +5185,10 @@
       <c r="E55" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="36"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="31"/>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7">
@@ -5376,21 +5239,15 @@
       <c r="B58" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="15">
-        <v>44133</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="36"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="21"/>
     </row>
     <row r="59" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7">
@@ -5399,28 +5256,28 @@
       <c r="B59" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="30" t="s">
-        <v>118</v>
+      <c r="C59" s="15">
+        <v>44131</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F59" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="36"/>
+      <c r="E59" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="31"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7">
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C60" s="15">
         <v>44131</v>
@@ -5441,7 +5298,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C61" s="15">
         <v>44131</v>
@@ -5462,7 +5319,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62" s="15">
         <v>44131</v>
@@ -5483,7 +5340,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C63" s="15">
         <v>44131</v>
@@ -5504,7 +5361,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C64" s="15">
         <v>44131</v>
@@ -5525,7 +5382,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C65" s="15">
         <v>44131</v>
@@ -5546,7 +5403,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C66" s="15">
         <v>44131</v>
@@ -5567,7 +5424,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C67" s="15">
         <v>44131</v>
@@ -5588,7 +5445,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C68" s="15">
         <v>44131</v>
@@ -5609,7 +5466,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C69" s="15">
         <v>44131</v>
@@ -5630,7 +5487,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C70" s="15">
         <v>44131</v>
@@ -5651,7 +5508,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C71" s="15">
         <v>44131</v>
@@ -5672,7 +5529,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C72" s="15">
         <v>44131</v>
@@ -5693,7 +5550,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C73" s="15">
         <v>44131</v>
@@ -5709,120 +5566,110 @@
       <c r="H73" s="23"/>
       <c r="I73" s="24"/>
     </row>
-    <row r="74" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7">
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>118</v>
+        <v>91</v>
+      </c>
+      <c r="C74" s="15">
+        <v>44131</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F74" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="36"/>
-    </row>
-    <row r="75" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7">
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="30" t="s">
-        <v>118</v>
+        <v>92</v>
+      </c>
+      <c r="C75" s="15">
+        <v>44131</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F75" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="36"/>
-    </row>
-    <row r="76" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="31"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7">
         <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C76" s="30" t="s">
-        <v>118</v>
+        <v>93</v>
+      </c>
+      <c r="C76" s="15">
+        <v>44131</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F76" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="36"/>
-    </row>
-    <row r="77" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="31"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7">
         <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>118</v>
+        <v>94</v>
+      </c>
+      <c r="C77" s="15">
+        <v>44131</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="F77" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="36"/>
+      <c r="E77" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="49">
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F59:I59"/>
-    <mergeCell ref="F58:I58"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F74:I74"/>
     <mergeCell ref="F75:I75"/>
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -5851,8 +5698,17 @@
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5950,10 +5806,10 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
@@ -5971,10 +5827,10 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
@@ -5992,10 +5848,10 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
@@ -6005,10 +5861,10 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
@@ -6018,10 +5874,10 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
@@ -6031,10 +5887,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
@@ -6044,10 +5900,10 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
@@ -6057,10 +5913,10 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
@@ -6070,10 +5926,10 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
@@ -6083,10 +5939,10 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
@@ -6096,10 +5952,10 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
@@ -6109,10 +5965,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
@@ -6122,10 +5978,10 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
@@ -6135,10 +5991,10 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
@@ -6148,10 +6004,10 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
@@ -6161,10 +6017,10 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
@@ -6174,10 +6030,10 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
@@ -6187,10 +6043,10 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
@@ -6200,10 +6056,10 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7">
@@ -6213,10 +6069,10 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
@@ -6226,10 +6082,10 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
@@ -6239,10 +6095,10 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
@@ -6252,10 +6108,10 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
@@ -6265,10 +6121,10 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
@@ -6278,10 +6134,10 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
@@ -6291,10 +6147,10 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -6304,10 +6160,10 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
@@ -6317,10 +6173,10 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
@@ -6330,10 +6186,10 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
@@ -6343,10 +6199,10 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{4C3941EA-523C-42B0-BE18-26D6D729CF97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F01E8B4-37F6-4325-A134-3EE1A2A7747D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,6 @@
     <sheet name="記入例" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="126">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -1200,10 +1199,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>高橋</t>
     <rPh sb="0" eb="1">
       <t>コウ</t>
@@ -2158,31 +2153,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>単体テスト実施時ユーザー情報直打ちの為、飛ばしました</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジッシ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジカウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>更新処理ができない</t>
     <rPh sb="0" eb="4">
       <t>コウシンショリ</t>
@@ -2270,9 +2240,6 @@
   </si>
   <si>
     <t>NG</t>
-  </si>
-  <si>
-    <t>NG</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2287,19 +2254,6 @@
   <si>
     <t>NG
 OK</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>未実装の為飛ばしました</t>
-    <rPh sb="0" eb="3">
-      <t>ミジッソウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2348,11 +2302,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>NG
-NG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>元の勤務表画面にエラーメッセージが出ず、エラーページに飛ぶ</t>
     <rPh sb="0" eb="1">
       <t>モト</t>
@@ -2372,37 +2321,243 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>項目20と同様の処理が未実装とのことで飛ばしました</t>
+    <t>登録は行われるが、その後の勤務表画面の表示が
+初回登録時の時はできない。
+※データが登録されている勤務表に追加で登録する際にも、
+　条件は不明だが稀にエラーページに遷移した。</t>
     <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="13" eb="18">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>キンムヒョウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>フメイ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>マレ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/27
+2020/10/29</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>△
+OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更不可の処理は問題ないが、登録ボタンを押した後の画面遷移で
+勤務表画面ではなくエラーページに行ってしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="25" eb="29">
+      <t>ガメンセンイ</t>
+    </rPh>
+    <rPh sb="31" eb="36">
+      <t>キンムヒョウガメン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者が他ユーザーの登録情報を書き換えて登録できない。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/26
+2020/10/28
+2020/11/4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG
+NG
+OK</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エラーメッセージは表示されるが入力欄の塗りつぶし処理が合っていない</t>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/29
+2020/11/4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG
+NG
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG
+NG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者が他ユーザーの登録情報を書き換えて登録できない。
+DBの更新者の項目のみ更新できていない。</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>コウシンシャ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
       <t>コウモク</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>ミジッソウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>処理が未実装の為飛ばしました</t>
+    <rPh sb="39" eb="41">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/28
+2020/11/4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>同上
+二回目以降の登録が上手くいかない</t>
     <rPh sb="0" eb="2">
-      <t>ショリ</t>
+      <t>ドウジョウ</t>
     </rPh>
     <rPh sb="3" eb="6">
-      <t>ミジッソウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タメ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
+      <t>ニカイメ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ウマ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2531,7 +2686,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2617,18 +2772,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2641,6 +2784,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2651,7 +2809,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4122,9 +4286,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59:I59"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -4198,21 +4362,21 @@
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="34" t="s">
-        <v>106</v>
+      <c r="C7" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+        <v>108</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
@@ -4230,10 +4394,10 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
@@ -4251,96 +4415,100 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33">
+      <c r="A10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="39"/>
+      <c r="C10" s="15">
+        <v>44139</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" ht="51.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="F11" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F12" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>108</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="34" t="s">
-        <v>106</v>
+      <c r="C13" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+        <v>66</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
@@ -4349,21 +4517,21 @@
       <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="34" t="s">
-        <v>106</v>
+      <c r="C14" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+        <v>108</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
@@ -4372,13 +4540,19 @@
       <c r="B15" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="C15" s="15">
+        <v>44132</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
@@ -4387,66 +4561,74 @@
       <c r="B16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="C16" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
         <v>11</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="15">
-        <v>44132</v>
+        <v>94</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="F17" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
         <v>12</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="15">
-        <v>44132</v>
+        <v>95</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="F18" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
         <v>13</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="15">
         <v>44132</v>
@@ -4457,17 +4639,17 @@
       <c r="E19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
         <v>14</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="15">
         <v>44132</v>
@@ -4490,44 +4672,44 @@
       <c r="B21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="34" t="s">
-        <v>106</v>
+      <c r="C21" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>108</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
         <v>16</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="34" t="s">
-        <v>106</v>
+      <c r="C22" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+        <v>118</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
@@ -4545,10 +4727,10 @@
       <c r="E23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
@@ -4564,158 +4746,192 @@
         <v>18</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+        <v>105</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="33">
+      <c r="A25" s="7">
         <v>21</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="39"/>
+      <c r="C25" s="15">
+        <v>44139</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33">
+      <c r="A26" s="29">
         <v>22</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="39"/>
+      <c r="C26" s="33">
+        <v>44139</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="33">
+      <c r="A27" s="7">
         <v>27</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
+      <c r="C27" s="15">
+        <v>44139</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="37"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33">
+      <c r="A28" s="7">
         <v>28</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B28" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="39"/>
-    </row>
-    <row r="29" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="15">
+        <v>44139</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="37"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+    </row>
+    <row r="29" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
         <v>29</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="34" t="s">
-        <v>106</v>
+      <c r="C29" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>118</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
         <v>30</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="34" t="s">
-        <v>106</v>
+      <c r="C30" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
+        <v>118</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:9" ht="65.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
         <v>31</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+    </row>
+    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="29">
+        <v>32</v>
+      </c>
+      <c r="B32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7">
-        <v>32</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
+      <c r="C32" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -4733,10 +4949,10 @@
       <c r="E33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
@@ -4775,10 +4991,10 @@
       <c r="E35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
@@ -4838,10 +5054,10 @@
       <c r="E38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7">
@@ -4859,10 +5075,10 @@
       <c r="E39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7">
@@ -4901,10 +5117,10 @@
       <c r="E41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="31"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7">
@@ -4922,10 +5138,10 @@
       <c r="E42" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7">
@@ -4943,10 +5159,10 @@
       <c r="E43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7">
@@ -4964,27 +5180,33 @@
       <c r="E44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="31"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="7">
+      <c r="F44" s="37"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
+    </row>
+    <row r="45" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="29">
         <v>45</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
+      <c r="C45" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="40"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7">
@@ -5002,10 +5224,10 @@
       <c r="E46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="31"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7">
@@ -5023,10 +5245,10 @@
       <c r="E47" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7">
@@ -5044,10 +5266,10 @@
       <c r="E48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="31"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7">
@@ -5065,10 +5287,10 @@
       <c r="E49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="31"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="36"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7">
@@ -5086,10 +5308,10 @@
       <c r="E50" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="31"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="36"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7">
@@ -5107,10 +5329,10 @@
       <c r="E51" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="31"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="36"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7">
@@ -5128,10 +5350,10 @@
       <c r="E52" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="29"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="31"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="36"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7">
@@ -5149,10 +5371,10 @@
       <c r="E53" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="29"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="31"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7">
@@ -5164,10 +5386,10 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="31"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="36"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7">
@@ -5185,10 +5407,10 @@
       <c r="E55" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="29"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="31"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="36"/>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7">
@@ -5239,15 +5461,21 @@
       <c r="B58" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="21"/>
+      <c r="C58" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="36"/>
     </row>
     <row r="59" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7">
@@ -5256,28 +5484,28 @@
       <c r="B59" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="15">
-        <v>44131</v>
+      <c r="C59" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="31"/>
+      <c r="E59" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7">
         <v>60</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C60" s="15">
         <v>44131</v>
@@ -5298,7 +5526,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" s="15">
         <v>44131</v>
@@ -5319,7 +5547,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" s="15">
         <v>44131</v>
@@ -5340,7 +5568,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" s="15">
         <v>44131</v>
@@ -5361,7 +5589,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="15">
         <v>44131</v>
@@ -5382,7 +5610,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="15">
         <v>44131</v>
@@ -5403,7 +5631,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66" s="15">
         <v>44131</v>
@@ -5424,7 +5652,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C67" s="15">
         <v>44131</v>
@@ -5445,7 +5673,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C68" s="15">
         <v>44131</v>
@@ -5466,7 +5694,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C69" s="15">
         <v>44131</v>
@@ -5487,7 +5715,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="15">
         <v>44131</v>
@@ -5508,7 +5736,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C71" s="15">
         <v>44131</v>
@@ -5529,7 +5757,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C72" s="15">
         <v>44131</v>
@@ -5550,7 +5778,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C73" s="15">
         <v>44131</v>
@@ -5566,110 +5794,120 @@
       <c r="H73" s="23"/>
       <c r="I73" s="24"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7">
         <v>74</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="15">
-        <v>44131</v>
+        <v>90</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="31"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="36"/>
+    </row>
+    <row r="75" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7">
         <v>75</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C75" s="15">
-        <v>44131</v>
+        <v>91</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="30"/>
-      <c r="I75" s="31"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="36"/>
+    </row>
+    <row r="76" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7">
         <v>76</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="15">
-        <v>44131</v>
+        <v>92</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G76" s="30"/>
-      <c r="H76" s="30"/>
-      <c r="I76" s="31"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="36"/>
+    </row>
+    <row r="77" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7">
         <v>77</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="15">
-        <v>44131</v>
+        <v>93</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E77" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F77" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="G77" s="30"/>
-      <c r="H77" s="30"/>
-      <c r="I77" s="31"/>
+      <c r="E77" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
+  <mergeCells count="50">
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F53:I53"/>
+    <mergeCell ref="F54:I54"/>
     <mergeCell ref="F59:I59"/>
+    <mergeCell ref="F58:I58"/>
     <mergeCell ref="F77:I77"/>
     <mergeCell ref="F74:I74"/>
     <mergeCell ref="F75:I75"/>
     <mergeCell ref="F76:I76"/>
     <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="F9:I9"/>
@@ -5698,17 +5936,8 @@
     <mergeCell ref="F43:I43"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F53:I53"/>
-    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5806,10 +6035,10 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
@@ -5827,10 +6056,10 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="31"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
@@ -5848,10 +6077,10 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
@@ -5861,10 +6090,10 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
@@ -5874,10 +6103,10 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
@@ -5887,10 +6116,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
@@ -5900,10 +6129,10 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
@@ -5913,10 +6142,10 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
@@ -5926,10 +6155,10 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
@@ -5939,10 +6168,10 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
@@ -5952,10 +6181,10 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
@@ -5965,10 +6194,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="31"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
@@ -5978,10 +6207,10 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="31"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
@@ -5991,10 +6220,10 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
@@ -6004,10 +6233,10 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
@@ -6017,10 +6246,10 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
@@ -6030,10 +6259,10 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
@@ -6043,10 +6272,10 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
@@ -6056,10 +6285,10 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="31"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7">
@@ -6069,10 +6298,10 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
@@ -6082,10 +6311,10 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
@@ -6095,10 +6324,10 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
@@ -6108,10 +6337,10 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="31"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
@@ -6121,10 +6350,10 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="31"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
@@ -6134,10 +6363,10 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="31"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
@@ -6147,10 +6376,10 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -6160,10 +6389,10 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="31"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
@@ -6173,10 +6402,10 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="31"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
@@ -6186,10 +6415,10 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="31"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
@@ -6199,10 +6428,10 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="31"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
+++ b/docs/単体テスト/テスト仕様書/【勤怠管理システム_テスト仕様書】KK04001_勤務報告書画面.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F01E8B4-37F6-4325-A134-3EE1A2A7747D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28B28D6-5BC5-4A8D-9A4C-B7AECD92439D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1790" yWindow="850" windowWidth="11120" windowHeight="8860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト仕様書" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="127">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -2491,17 +2491,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">NG
-NG
-</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>NG
-NG</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>管理者が他ユーザーの登録情報を書き換えて登録できない。
 DBの更新者の項目のみ更新できていない。</t>
     <rPh sb="0" eb="3">
@@ -2539,6 +2528,24 @@
   <si>
     <t>2020/10/28
 2020/11/4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/11/4
+2020/11/5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2020/10/29
+2020/11/4
+2020/11/5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NG
+NG
+OK
+</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2596,7 +2603,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2612,12 +2619,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2686,7 +2687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2772,20 +2773,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2798,24 +2787,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4286,9 +4257,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A29CC4-21D6-4766-80DA-46B5F250954D}">
   <dimension ref="A1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33:I33"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.55000000000000004"/>
@@ -4362,7 +4333,7 @@
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>104</v>
       </c>
       <c r="D7" s="14" t="s">
@@ -4371,12 +4342,12 @@
       <c r="E7" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
@@ -4394,10 +4365,10 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
@@ -4415,10 +4386,10 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
@@ -4436,10 +4407,10 @@
       <c r="E10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" ht="51.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
@@ -4448,7 +4419,7 @@
       <c r="B11" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="29" t="s">
         <v>104</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -4457,12 +4428,12 @@
       <c r="E11" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
@@ -4471,7 +4442,7 @@
       <c r="B12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -4480,12 +4451,12 @@
       <c r="E12" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
@@ -4494,7 +4465,7 @@
       <c r="B13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>117</v>
       </c>
       <c r="D13" s="14" t="s">
@@ -4503,12 +4474,12 @@
       <c r="E13" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
@@ -4517,7 +4488,7 @@
       <c r="B14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="29" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -4526,12 +4497,12 @@
       <c r="E14" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
@@ -4549,10 +4520,10 @@
       <c r="E15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
@@ -4561,8 +4532,8 @@
       <c r="B16" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="30" t="s">
-        <v>124</v>
+      <c r="C16" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>18</v>
@@ -4570,12 +4541,12 @@
       <c r="E16" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
@@ -4584,8 +4555,8 @@
       <c r="B17" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>124</v>
+      <c r="C17" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>18</v>
@@ -4593,12 +4564,12 @@
       <c r="E17" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
@@ -4607,8 +4578,8 @@
       <c r="B18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>124</v>
+      <c r="C18" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>18</v>
@@ -4616,12 +4587,12 @@
       <c r="E18" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
@@ -4639,10 +4610,10 @@
       <c r="E19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
@@ -4672,7 +4643,7 @@
       <c r="B21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="29" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -4681,12 +4652,12 @@
       <c r="E21" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" ht="59.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
@@ -4695,7 +4666,7 @@
       <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>117</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -4704,12 +4675,12 @@
       <c r="E22" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="34" t="s">
+      <c r="F22" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
@@ -4727,10 +4698,10 @@
       <c r="E23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
@@ -4748,12 +4719,12 @@
       <c r="E24" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
@@ -4771,33 +4742,33 @@
       <c r="E25" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="29">
+      <c r="F25" s="33"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
+    </row>
+    <row r="26" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="7">
         <v>22</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="33">
-        <v>44139</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="38" t="s">
+      <c r="C26" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
@@ -4815,10 +4786,10 @@
       <c r="E27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
@@ -4836,10 +4807,10 @@
       <c r="E28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
@@ -4848,7 +4819,7 @@
       <c r="B29" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>117</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -4857,12 +4828,12 @@
       <c r="E29" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
@@ -4871,7 +4842,7 @@
       <c r="B30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>117</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -4880,12 +4851,12 @@
       <c r="E30" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" ht="65.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
@@ -4894,7 +4865,7 @@
       <c r="B31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>120</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -4903,35 +4874,35 @@
       <c r="E31" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="34" t="s">
+      <c r="F31" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-    </row>
-    <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="29">
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="7">
         <v>32</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="43" t="s">
+      <c r="C32" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="40"/>
+      <c r="F32" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -4949,10 +4920,10 @@
       <c r="E33" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
@@ -4991,10 +4962,10 @@
       <c r="E35" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
@@ -5054,10 +5025,10 @@
       <c r="E38" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7">
@@ -5075,10 +5046,10 @@
       <c r="E39" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="36"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7">
@@ -5117,10 +5088,10 @@
       <c r="E41" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="36"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7">
@@ -5138,10 +5109,10 @@
       <c r="E42" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="36"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7">
@@ -5159,10 +5130,10 @@
       <c r="E43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F43" s="37"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7">
@@ -5180,33 +5151,33 @@
       <c r="E44" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F44" s="37"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-    </row>
-    <row r="45" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="29">
+      <c r="F44" s="33"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="1:9" ht="45.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="7">
         <v>45</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="F45" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="40"/>
+      <c r="C45" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7">
@@ -5224,10 +5195,10 @@
       <c r="E46" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="32"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7">
@@ -5245,10 +5216,10 @@
       <c r="E47" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="36"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="32"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7">
@@ -5266,10 +5237,10 @@
       <c r="E48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="36"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="32"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7">
@@ -5287,10 +5258,10 @@
       <c r="E49" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="36"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="32"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7">
@@ -5308,10 +5279,10 @@
       <c r="E50" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="36"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="32"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7">
@@ -5329,10 +5300,10 @@
       <c r="E51" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="36"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="32"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7">
@@ -5350,10 +5321,10 @@
       <c r="E52" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="37"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="36"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="32"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7">
@@ -5371,10 +5342,10 @@
       <c r="E53" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="36"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="32"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7">
@@ -5386,10 +5357,10 @@
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="36"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="32"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7">
@@ -5407,10 +5378,10 @@
       <c r="E55" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F55" s="37"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="36"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="32"/>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7">
@@ -5461,7 +5432,7 @@
       <c r="B58" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="30" t="s">
+      <c r="C58" s="29" t="s">
         <v>120</v>
       </c>
       <c r="D58" s="14" t="s">
@@ -5470,12 +5441,12 @@
       <c r="E58" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F58" s="37" t="s">
+      <c r="F58" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="36"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="32"/>
     </row>
     <row r="59" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7">
@@ -5484,7 +5455,7 @@
       <c r="B59" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C59" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D59" s="14" t="s">
@@ -5493,12 +5464,12 @@
       <c r="E59" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F59" s="34" t="s">
+      <c r="F59" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="36"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="32"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7">
@@ -5801,7 +5772,7 @@
       <c r="B74" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C74" s="30" t="s">
+      <c r="C74" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D74" s="14" t="s">
@@ -5810,12 +5781,12 @@
       <c r="E74" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F74" s="37" t="s">
+      <c r="F74" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="36"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="32"/>
     </row>
     <row r="75" spans="1:9" ht="30.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7">
@@ -5824,7 +5795,7 @@
       <c r="B75" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="30" t="s">
+      <c r="C75" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -5833,12 +5804,12 @@
       <c r="E75" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="F75" s="37" t="s">
+      <c r="F75" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="36"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="32"/>
     </row>
     <row r="76" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7">
@@ -5847,7 +5818,7 @@
       <c r="B76" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C76" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D76" s="14" t="s">
@@ -5856,12 +5827,12 @@
       <c r="E76" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F76" s="37" t="s">
+      <c r="F76" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="36"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="32"/>
     </row>
     <row r="77" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7">
@@ -5870,7 +5841,7 @@
       <c r="B77" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C77" s="30" t="s">
+      <c r="C77" s="29" t="s">
         <v>113</v>
       </c>
       <c r="D77" s="14" t="s">
@@ -5879,12 +5850,12 @@
       <c r="E77" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="F77" s="37" t="s">
+      <c r="F77" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="36"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="50">
@@ -6035,10 +6006,10 @@
       <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="36"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7">
@@ -6056,10 +6027,10 @@
       <c r="E8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7">
@@ -6077,10 +6048,10 @@
       <c r="E9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="36"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7">
@@ -6090,10 +6061,10 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="36"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7">
@@ -6103,10 +6074,10 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7">
@@ -6116,10 +6087,10 @@
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="36"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7">
@@ -6129,10 +6100,10 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="36"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7">
@@ -6142,10 +6113,10 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7">
@@ -6155,10 +6126,10 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="36"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7">
@@ -6168,10 +6139,10 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="36"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7">
@@ -6181,10 +6152,10 @@
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7">
@@ -6194,10 +6165,10 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7">
@@ -6207,10 +6178,10 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7">
@@ -6220,10 +6191,10 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7">
@@ -6233,10 +6204,10 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7">
@@ -6246,10 +6217,10 @@
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7">
@@ -6259,10 +6230,10 @@
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7">
@@ -6272,10 +6243,10 @@
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7">
@@ -6285,10 +6256,10 @@
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="36"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7">
@@ -6298,10 +6269,10 @@
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7">
@@ -6311,10 +6282,10 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7">
@@ -6324,10 +6295,10 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7">
@@ -6337,10 +6308,10 @@
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7">
@@ -6350,10 +6321,10 @@
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7">
@@ -6363,10 +6334,10 @@
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7">
@@ -6376,10 +6347,10 @@
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7">
@@ -6389,10 +6360,10 @@
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7">
@@ -6402,10 +6373,10 @@
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7">
@@ -6415,10 +6386,10 @@
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7">
@@ -6428,10 +6399,10 @@
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="36"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="30">
